--- a/tools/Cyber_essentiel_requierement/Cyber_essentiel.xlsx
+++ b/tools/Cyber_essentiel_requierement/Cyber_essentiel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imanabshirali/Desktop/stage MAi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imanabshirali/Documents/GitHub/ciso-assistant-community/tools/Cyber_essentiel_requierement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCCC43A-18D5-E24A-9AC2-88328DC7D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1036431-318A-A541-B5DF-B03AE7039598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="1" r:id="rId1"/>
@@ -565,9 +565,6 @@
     <t>Information</t>
   </si>
   <si>
-    <t>UK Government</t>
-  </si>
-  <si>
     <t>Cyber_Essentials_Requirements</t>
   </si>
   <si>
@@ -939,15 +936,25 @@
   <si>
     <t>Take the necessary steps to ensure that your organisation meets every requirement it
 needs for the scope you have determined.</t>
+  </si>
+  <si>
+    <t>NCSC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1088,15 +1095,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1118,28 +1125,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1160,7 +1167,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1193,17 +1200,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1510,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1588,8 +1598,8 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>175</v>
+      <c r="B8" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -1643,7 +1653,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -1674,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1893"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1700,7 +1710,7 @@
         <v>22</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -1726,7 +1736,7 @@
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -1738,7 +1748,7 @@
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -1750,7 +1760,7 @@
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -1762,7 +1772,7 @@
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -1774,7 +1784,7 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -1786,7 +1796,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -1798,7 +1808,7 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -1822,7 +1832,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -1834,7 +1844,7 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -1846,7 +1856,7 @@
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1869,7 +1879,7 @@
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -1879,7 +1889,7 @@
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="10"/>
     </row>
@@ -1889,7 +1899,7 @@
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -1899,7 +1909,7 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -1909,7 +1919,7 @@
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -1929,7 +1939,7 @@
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -1949,7 +1959,7 @@
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F23" s="10"/>
     </row>
@@ -1986,7 +1996,7 @@
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -1996,7 +2006,7 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F27" s="10"/>
     </row>
@@ -2008,7 +2018,7 @@
         <v>34</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F28" s="26"/>
     </row>
@@ -2018,7 +2028,7 @@
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F29" s="10"/>
     </row>
@@ -2090,7 +2100,7 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F36" s="10"/>
     </row>
@@ -2100,7 +2110,7 @@
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F37" s="10"/>
     </row>
@@ -2145,7 +2155,7 @@
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F41" s="10"/>
     </row>
@@ -2185,7 +2195,7 @@
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F45" s="10"/>
     </row>
@@ -2195,7 +2205,7 @@
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F46" s="10"/>
     </row>
@@ -2230,7 +2240,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F49" s="10"/>
     </row>
@@ -2250,7 +2260,7 @@
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F51" s="10"/>
     </row>
@@ -2360,7 +2370,7 @@
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F61" s="10"/>
     </row>
@@ -2370,7 +2380,7 @@
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F62" s="10"/>
     </row>
@@ -2380,7 +2390,7 @@
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F63" s="10"/>
     </row>
@@ -2672,7 +2682,7 @@
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F85" s="10"/>
     </row>
@@ -2695,7 +2705,7 @@
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F87" s="10"/>
     </row>
@@ -2705,7 +2715,7 @@
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F88" s="10"/>
     </row>
@@ -2730,7 +2740,7 @@
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F90" s="10"/>
     </row>
@@ -2740,7 +2750,7 @@
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F91" s="10"/>
     </row>
@@ -2749,7 +2759,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E92" s="40"/>
       <c r="F92" s="24"/>
@@ -2759,10 +2769,10 @@
         <v>4</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F93" s="10"/>
     </row>
@@ -2771,10 +2781,10 @@
         <v>4</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F94" s="10"/>
     </row>
@@ -2783,10 +2793,10 @@
         <v>4</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F95" s="10"/>
     </row>
@@ -2795,7 +2805,7 @@
         <v>3</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E96" s="40"/>
       <c r="F96" s="24"/>
@@ -2805,10 +2815,10 @@
         <v>4</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F97" s="10"/>
     </row>
@@ -2817,10 +2827,10 @@
         <v>4</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E98" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F98" s="10"/>
     </row>
@@ -2829,10 +2839,10 @@
         <v>4</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -2841,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E100" s="40"/>
       <c r="F100" s="24"/>
@@ -2851,10 +2861,10 @@
         <v>4</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F101" s="10"/>
     </row>
@@ -2863,10 +2873,10 @@
         <v>4</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F102" s="10"/>
     </row>
@@ -2875,10 +2885,10 @@
         <v>4</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F103" s="10"/>
     </row>
@@ -2887,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E104" s="40"/>
       <c r="F104" s="24"/>
@@ -2897,10 +2907,10 @@
         <v>4</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F105" s="10"/>
     </row>
@@ -2909,10 +2919,10 @@
         <v>4</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F106" s="10"/>
     </row>
@@ -2921,10 +2931,10 @@
         <v>4</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F107" s="10"/>
     </row>
@@ -2933,7 +2943,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E108" s="40"/>
       <c r="F108" s="24"/>
@@ -2943,10 +2953,10 @@
         <v>4</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F109" s="10"/>
     </row>
@@ -2955,10 +2965,10 @@
         <v>4</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F110" s="10"/>
     </row>
@@ -2967,10 +2977,10 @@
         <v>4</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F111" s="10"/>
     </row>
@@ -2979,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E112" s="40"/>
       <c r="F112" s="24"/>
@@ -2989,10 +2999,10 @@
         <v>4</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F113" s="10"/>
     </row>
@@ -3001,10 +3011,10 @@
         <v>4</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F114" s="10"/>
     </row>
@@ -3013,10 +3023,10 @@
         <v>4</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F115" s="10"/>
     </row>
@@ -3025,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E116" s="40"/>
       <c r="F116" s="24"/>
@@ -3035,10 +3045,10 @@
         <v>4</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F117" s="10"/>
     </row>
@@ -3047,10 +3057,10 @@
         <v>4</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F118" s="10"/>
     </row>
@@ -3059,10 +3069,10 @@
         <v>4</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F119" s="10"/>
     </row>
@@ -3071,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E120" s="40"/>
       <c r="F120" s="24"/>
@@ -3081,10 +3091,10 @@
         <v>4</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F121" s="10"/>
     </row>
@@ -3093,10 +3103,10 @@
         <v>4</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F122" s="10"/>
     </row>
@@ -3105,10 +3115,10 @@
         <v>4</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E123" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F123" s="10"/>
     </row>
@@ -3130,7 +3140,7 @@
       </c>
       <c r="D125" s="10"/>
       <c r="E125" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F125" s="10"/>
     </row>
@@ -3214,7 +3224,7 @@
       </c>
       <c r="D132" s="10"/>
       <c r="E132" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F132" s="10"/>
     </row>
@@ -3224,7 +3234,7 @@
       </c>
       <c r="D133" s="10"/>
       <c r="E133" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F133" s="10"/>
     </row>
@@ -3234,7 +3244,7 @@
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F134" s="10"/>
     </row>
@@ -3259,7 +3269,7 @@
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F136" s="10"/>
     </row>
@@ -3271,7 +3281,7 @@
         <v>90</v>
       </c>
       <c r="E137" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F137" s="26"/>
     </row>
@@ -3297,7 +3307,7 @@
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F139" s="10"/>
     </row>
@@ -3310,7 +3320,7 @@
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F140" s="10"/>
     </row>
@@ -3336,7 +3346,7 @@
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F142" s="10"/>
     </row>
@@ -3362,7 +3372,7 @@
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F144" s="10"/>
     </row>
@@ -3477,7 +3487,7 @@
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F154" s="10"/>
     </row>
@@ -3487,7 +3497,7 @@
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F155" s="10"/>
     </row>
@@ -3517,7 +3527,7 @@
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F158" s="10"/>
     </row>
@@ -3527,7 +3537,7 @@
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F159" s="10"/>
     </row>
@@ -3577,7 +3587,7 @@
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F163" s="10"/>
     </row>
@@ -3616,7 +3626,7 @@
       </c>
       <c r="D166" s="10"/>
       <c r="E166" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F166" s="10"/>
     </row>
@@ -3629,7 +3639,7 @@
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F167" s="10"/>
     </row>
@@ -3642,7 +3652,7 @@
       </c>
       <c r="D168" s="10"/>
       <c r="E168" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F168" s="10"/>
     </row>
@@ -3667,7 +3677,7 @@
       </c>
       <c r="D170" s="10"/>
       <c r="E170" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F170" s="10"/>
     </row>
@@ -3680,7 +3690,7 @@
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F171" s="10"/>
     </row>
@@ -3693,7 +3703,7 @@
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F172" s="10"/>
     </row>
@@ -3732,7 +3742,7 @@
       </c>
       <c r="D175" s="10"/>
       <c r="E175" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F175" s="10"/>
     </row>
@@ -3757,7 +3767,7 @@
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F177" s="10"/>
     </row>
@@ -3951,7 +3961,7 @@
         <v>34</v>
       </c>
       <c r="E193" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F193" s="32"/>
     </row>
@@ -3961,7 +3971,7 @@
       </c>
       <c r="D194" s="32"/>
       <c r="E194" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F194" s="32"/>
     </row>
@@ -3973,7 +3983,7 @@
         <v>90</v>
       </c>
       <c r="E195" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F195" s="26"/>
     </row>
@@ -3985,7 +3995,7 @@
         <v>125</v>
       </c>
       <c r="E196" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F196" s="26"/>
     </row>
@@ -4073,7 +4083,7 @@
       </c>
       <c r="D204" s="10"/>
       <c r="E204" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F204" s="10"/>
     </row>
@@ -4086,7 +4096,7 @@
       </c>
       <c r="D205" s="10"/>
       <c r="E205" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F205" s="10"/>
     </row>
@@ -4099,7 +4109,7 @@
       </c>
       <c r="D206" s="10"/>
       <c r="E206" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F206" s="10"/>
     </row>
@@ -4112,7 +4122,7 @@
       </c>
       <c r="D207" s="10"/>
       <c r="E207" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F207" s="10"/>
     </row>
@@ -4151,7 +4161,7 @@
       </c>
       <c r="D210" s="10"/>
       <c r="E210" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F210" s="10"/>
     </row>
@@ -4164,7 +4174,7 @@
       </c>
       <c r="D211" s="10"/>
       <c r="E211" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F211" s="10"/>
     </row>
@@ -4176,7 +4186,7 @@
         <v>134</v>
       </c>
       <c r="E212" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F212" s="30"/>
     </row>
@@ -4201,7 +4211,7 @@
       </c>
       <c r="D214" s="10"/>
       <c r="E214" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F214" s="10"/>
     </row>
@@ -4239,7 +4249,7 @@
       </c>
       <c r="D217" s="10"/>
       <c r="E217" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F217" s="10"/>
     </row>
@@ -4252,7 +4262,7 @@
       </c>
       <c r="D218" s="10"/>
       <c r="E218" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F218" s="10"/>
     </row>
@@ -4278,7 +4288,7 @@
       </c>
       <c r="D220" s="10"/>
       <c r="E220" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F220" s="10"/>
     </row>
@@ -4291,7 +4301,7 @@
       </c>
       <c r="D221" s="10"/>
       <c r="E221" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F221" s="10"/>
     </row>
@@ -4329,7 +4339,7 @@
       </c>
       <c r="D224" s="10"/>
       <c r="E224" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F224" s="10"/>
     </row>
@@ -4342,7 +4352,7 @@
       </c>
       <c r="D225" s="10"/>
       <c r="E225" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F225" s="10"/>
     </row>
@@ -4355,7 +4365,7 @@
       </c>
       <c r="D226" s="10"/>
       <c r="E226" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F226" s="10"/>
     </row>
@@ -4368,7 +4378,7 @@
       </c>
       <c r="D227" s="10"/>
       <c r="E227" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F227" s="10"/>
     </row>
@@ -4394,7 +4404,7 @@
       </c>
       <c r="D229" s="10"/>
       <c r="E229" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F229" s="10"/>
     </row>
@@ -4420,7 +4430,7 @@
       </c>
       <c r="D231" s="10"/>
       <c r="E231" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F231" s="10"/>
     </row>
@@ -4433,7 +4443,7 @@
       </c>
       <c r="D232" s="10"/>
       <c r="E232" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F232" s="10"/>
     </row>
@@ -4459,7 +4469,7 @@
       </c>
       <c r="D234" s="10"/>
       <c r="E234" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F234" s="10"/>
     </row>
@@ -4472,7 +4482,7 @@
       </c>
       <c r="D235" s="10"/>
       <c r="E235" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F235" s="10"/>
     </row>
@@ -4485,7 +4495,7 @@
       </c>
       <c r="D236" s="10"/>
       <c r="E236" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F236" s="10"/>
     </row>
@@ -4549,7 +4559,7 @@
       </c>
       <c r="D241" s="10"/>
       <c r="E241" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F241" s="10"/>
     </row>
@@ -4562,7 +4572,7 @@
       </c>
       <c r="D242" s="10"/>
       <c r="E242" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F242" s="10"/>
     </row>
@@ -4640,7 +4650,7 @@
       </c>
       <c r="D248" s="10"/>
       <c r="E248" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F248" s="10"/>
     </row>
@@ -4655,7 +4665,7 @@
         <v>90</v>
       </c>
       <c r="E249" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F249" s="10"/>
     </row>
@@ -4702,7 +4712,7 @@
       </c>
       <c r="D253" s="10"/>
       <c r="E253" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F253" s="10"/>
     </row>
@@ -4727,7 +4737,7 @@
       </c>
       <c r="D255" s="10"/>
       <c r="E255" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F255" s="10"/>
     </row>
@@ -4740,7 +4750,7 @@
       </c>
       <c r="D256" s="10"/>
       <c r="E256" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F256" s="10"/>
     </row>
@@ -4791,7 +4801,7 @@
         <v>156</v>
       </c>
       <c r="E260" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F260" s="30"/>
     </row>
@@ -4816,7 +4826,7 @@
       </c>
       <c r="D262" s="10"/>
       <c r="E262" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F262" s="10"/>
     </row>
@@ -4957,7 +4967,7 @@
       </c>
       <c r="D273" s="10"/>
       <c r="E273" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F273" s="10"/>
     </row>
@@ -4997,7 +5007,7 @@
       </c>
       <c r="D276" s="10"/>
       <c r="E276" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F276" s="10"/>
     </row>
@@ -5010,7 +5020,7 @@
       </c>
       <c r="D277" s="10"/>
       <c r="E277" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F277" s="10"/>
     </row>
@@ -5023,7 +5033,7 @@
       </c>
       <c r="D278" s="10"/>
       <c r="E278" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F278" s="10"/>
     </row>
@@ -5036,7 +5046,7 @@
       </c>
       <c r="D279" s="10"/>
       <c r="E279" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F279" s="10"/>
     </row>
@@ -5049,7 +5059,7 @@
       </c>
       <c r="D280" s="10"/>
       <c r="E280" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F280" s="10"/>
     </row>
@@ -5074,7 +5084,7 @@
       </c>
       <c r="D282" s="10"/>
       <c r="E282" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F282" s="10"/>
     </row>
@@ -5087,7 +5097,7 @@
       </c>
       <c r="D283" s="10"/>
       <c r="E283" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F283" s="10"/>
     </row>
@@ -5100,7 +5110,7 @@
       </c>
       <c r="D284" s="10"/>
       <c r="E284" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F284" s="10"/>
     </row>
@@ -5113,7 +5123,7 @@
       </c>
       <c r="D285" s="10"/>
       <c r="E285" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F285" s="10"/>
     </row>
@@ -5126,7 +5136,7 @@
       </c>
       <c r="D286" s="17"/>
       <c r="E286" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F286" s="17"/>
     </row>
@@ -13171,7 +13181,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E286" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>